--- a/Reports/recordsDf.xlsx
+++ b/Reports/recordsDf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>URL</t>
   </si>
@@ -37,28 +37,43 @@
     <t>https://www.skroutz.gr/s/28477458/Akai-ABTS-55-%CE%97%CF%87%CE%B5%CE%AF%CE%BF-Bluetooth-50W-%CE%BC%CE%B5-3-8-%CF%8E%CF%81%CE%B5%CF%82-%CE%9B%CE%B5%CE%B9%CF%84%CE%BF%CF%85%CF%81%CE%B3%CE%AF%CE%B1%CF%82-Black.html</t>
   </si>
   <si>
+    <t>https://www.skroutz.gr/s/36073341/Akai-M3-Soul-110582-0109-%CE%97%CF%87%CE%B5%CE%AF%CE%BF-Bluetooth-20W-%CE%BC%CE%B5-15-%CF%8E%CF%81%CE%B5%CF%82-%CE%9B%CE%B5%CE%B9%CF%84%CE%BF%CF%85%CF%81%CE%B3%CE%AF%CE%B1%CF%82-Brown.html</t>
+  </si>
+  <si>
     <t>First Austria FA-5560-2 Ανεμιστήρας Πύργος 60W με Τηλεχειριστήριο</t>
   </si>
   <si>
     <t>Akai ABTS-55 Ηχείο Bluetooth 50W με 3.8 ώρες Λειτουργίας Black</t>
   </si>
   <si>
-    <t>['Apothema', 'ElectroStudio', 'TechFace', 'Central', 'Energy', 'Electric Shop', 'Mrtoner', 'ShopHere', 'Just One', 'Boutique Electric', 'Allintech', 'inBox', 'Shop13', 'Shop365', 'CarPlace', 'Offerstore', 'Cosmo-market', 'Somon', 'Snatch', 'Guaranty', 'Schinas-electric', 'Trelokalathi', 'Acron Shop', 'Storeio', 'Endless', 'iCart Shop', 'Smart Cart', 'Shophere Multistore', 'Squel', 'LoveU', 'Fotia', 'Mad Market', 'El-shop', 'Smart-Tech', 'TheGadget', 'Lifestore', 'PCLIFE', 'Taergalia', '3dmall', 'Globoshop', 'Plaza24', 'Eshop33', 'Systral', 'Esmarket']</t>
-  </si>
-  <si>
-    <t>['Stechi', 'ElectroStudio', 'Fotia', 'Spithas', 'Wishop', 'Cosmodata', 'Electrocrete', 'E-theodoulidis', 'E-apostolakis', 'Tzorakis', 'Pairno', 'Raba', '247home', 'Mega salapatas', 'D. Tranoulis', 'Germanos', 'eScroll', 'Electromarkt', 'Praktiker', 'Central', 'Dileris', 'Think Electric', 'Euragora', 'Electrofox', 'Moutaftsis', 'ΗΛΕΚΤΡΑΓΟΡΑ ΜΠΙΜΠΗΣ', 'Apothema', 'Samarasae', 'Παρράς', '5050', 'E-Felekis', 'Electric Shop', 'Perkas', 'ShopHere', 'Klapstores', 'Allmarket', 'Home Planet', 'Boutique Electric', 'Allintech', 'Plus3', 'Studio Mao', 'Market24', 'CarPlace', 'GsTecSystem', 'Buyit4u', 'Trelokalathi', 'Storeio', 'Electrical Roumeliotis', 'PapadatosHome', 'YoloHome', 'Allsmart', 'Endless', 'Shophere Multistore', 'Squel', 'E-karonis', 'Maxelectric', 'Techstores', 'Cosmo-market', 'Offerstore', 'El-shop', 'Smart-Tech', 'TheGadget', 'Somon', 'Esmarket', 'Mad Market', 'LoveU', 'BarbaStore', 'Mrtoner', 'Snatch', 'Sunshine', 'TechSport', 'Globoshop', 'Lifestore', 'PCLIFE', 'Plaza24', 'Taergalia', 'Eshop33', 'Systral', '3dmall']</t>
-  </si>
-  <si>
-    <t>['99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.90', '102.96', '108.90', '108.90', '108.90', '111.51', '111.51', '111.51', '111.59', '123.90', '123.90', '123.90', '123.90', '138.27']</t>
-  </si>
-  <si>
-    <t>['59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '65.90', '68.99', '69.00', '69.00', '69.00', '69.90', '72.80', '73.26', '73.60', '74.90', '79.00', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.91', '80.00', '82.69', '85.50', '87.21', '87.89', '87.89', '87.89', '87.90', '89.69', '91.41', '92.26', '92.40', '92.43', '99.90', '110.00', '114.59', '115.90', '115.90', '115.90', '115.90', '115.90', '115.90', '115.90', '117.79']</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 1, 0, 0, 1, 1, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0]</t>
+    <t>Akai M3-Soul Ηχείο Bluetooth 20W με 15 ώρες Λειτουργίας BrownΚωδικός: 110582-0109</t>
+  </si>
+  <si>
+    <t>['Central', 'Click Inside', 'Boutique Electric', 'Apothema', 'Stechi', 'ElectroStudio', 'TechFace', 'Smart Cart', '5050', 'Orizonstore', 'Energy', 'Proton Power &amp; Light', 'Spithas', 'Electric Shop', 'ShopHere', 'Klapstores', 'Just One', 'Allintech', 'Cosmodata', 'Plus3', 'inBox', 'Shop13', 'AllStock', 'Shop365', 'Alexopoulos Electronics', 'Market24', 'CarPlace', 'Tzorakis', 'Offerstore', 'Cosmo-market', '247home', 'Somon', 'Guaranty', 'Schinas-electric', 'Trelokalathi', 'Acron Shop', 'Homelove', 'Storeio', 'YoloHome', 'Endless', 'iCart Shop', 'Shophere Multistore', 'Squel', 'Electric Supplies Store', 'Maniastore', 'LoveU', 'Fotia', 'Mad Market', 'Mrtoner', 'Stop&amp;Shop', 'El-shop', 'Smart-Tech', 'TheGadget', 'Snatch', 'Lifestore', 'PCLIFE', 'Taergalia', '3dmall', 'Globoshop', 'Plaza24', 'Eshop33', 'Systral', 'Esmarket']</t>
+  </si>
+  <si>
+    <t>['Click Inside', 'SaveIt', 'Pixel', 'Stechi', 'ElectroStudio', 'Fotia', 'Spithas', 'Wishop', 'Cosmodata', 'Electrocrete', 'E-theodoulidis', 'E-apostolakis', 'Tzorakis', 'Pairno', 'Raba', '247home', 'Mega salapatas', 'D. Tranoulis', 'Germanos', 'eScroll', 'Praktiker', 'Central', 'Dileris', 'Think Electric', 'Euragora', 'Electrofox', 'Moutaftsis', 'ΗΛΕΚΤΡΑΓΟΡΑ ΜΠΙΜΠΗΣ', 'Apothema', 'Samarasae', 'Παρράς', 'Orizonstore', 'E-Felekis', 'Electric Shop', 'Perkas', 'ShopHere', 'Klapstores', 'Allmarket', 'Home Planet', 'Boutique Electric', 'Allintech', 'Plus3', 'Studio Mao', 'Market24', 'CarPlace', 'GsTecSystem', 'Buyit4u', 'Trelokalathi', 'Electrical Roumeliotis', 'Storeio', 'PapadatosHome', 'Allsmart', 'Endless', 'Shophere Multistore', 'Squel', 'Maxelectric', 'Techking', 'Techstores', 'Cosmo-market', 'Offerstore', 'El-shop', 'Smart-Tech', 'TheGadget', 'Somon', 'Esmarket', 'Mad Market', 'BarbaStore', 'Mrtoner', 'YoloHome', 'LoveU', 'Snatch', 'Sunshine', 'TechSport', 'Globoshop', 'Lifestore', 'PCLIFE', 'Eshop33', 'Plaza24', 'Taergalia', 'Systral', '3dmall', 'Electro-House']</t>
+  </si>
+  <si>
+    <t>['Apothema', 'ElectroStudio', 'E-Felekis', 'E-orfanos', 'Klapstores', 'Allmarket', 'Just One', 'Allintech', 'Cosmodata', 'Plus3', 'Click Inside', 'Electrocrete', 'Market24', 'CarPlace', 'Offerstore', 'Cosmo-market', 'GsTecSystem', 'Electrofox', 'Schinas-electric', 'Trelokalathi', 'Storeio', 'Allsmart', 'Squel', 'Somon', 'Central', 'El-shop', 'Smart-Tech', 'TheGadget', 'Mad Market', 'Mrtoner', 'YoloHome', 'Uprice multistore', 'Lifestore', 'PCLIFE', 'Eshop33', 'Systral']</t>
+  </si>
+  <si>
+    <t>['98.70', '98.70', '98.99', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.00', '99.90', '102.96', '103.60', '105.93', '108.90', '108.90', '108.90', '109.00', '111.51', '111.51', '111.51', '111.59', '123.90', '123.90', '129.90', '129.90', '138.27']</t>
+  </si>
+  <si>
+    <t>['59.60', '59.70', '59.77', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '59.90', '65.90', '68.99', '69.00', '69.00', '69.00', '69.90', '72.80', '73.26', '73.60', '74.90', '79.00', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '79.90', '80.00', '81.88', '82.69', '85.50', '87.21', '87.89', '87.89', '87.89', '87.90', '89.69', '91.41', '92.40', '92.43', '92.43', '94.53', '99.90', '110.00', '114.59', '115.90', '115.90', '115.90', '115.90', '115.90', '115.90', '115.90', '117.79', '119.00']</t>
+  </si>
+  <si>
+    <t>['99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '99.90', '106.70', '109.80', '109.89', '109.89', '109.89', '110.97', '111.57', '111.57', '125.00', '139.90', '139.90', '139.90', '139.90']</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0]</t>
   </si>
 </sst>
 </file>
@@ -429,17 +444,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="288.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="3" width="1090.5703125" customWidth="1"/>
-    <col min="4" max="4" width="757.7109375" customWidth="1"/>
-    <col min="5" max="5" width="249.5703125" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1134.7109375" customWidth="1"/>
+    <col min="4" max="4" width="787.140625" customWidth="1"/>
+    <col min="5" max="5" width="259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -464,16 +479,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -481,22 +496,40 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
